--- a/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
+++ b/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aaron_Folder\Git_Repo\cuoxiazi\01_doc\biz_spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GitHub\cuoxiazi\01_doc\biz_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="13260" windowHeight="10110" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="13260" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="文档信息" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="R_LOG" localSheetId="0">#REF!</definedName>
     <definedName name="R_LOG">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -56,6 +56,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>唯一编号</t>
@@ -77,6 +78,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>如</t>
@@ -100,6 +102,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概要设计里描述此需求的章节</t>
@@ -124,6 +127,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>详细设计里描述此需求的章节</t>
@@ -147,6 +151,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概要设计里描述此需求的章节</t>
@@ -171,6 +176,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>详细设计里描述此需求的章节</t>
@@ -829,14 +835,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -921,24 +927,28 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -946,18 +956,21 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -968,22 +981,26 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1018,6 +1035,12 @@
     <font>
       <sz val="11"/>
       <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1548,7 +1571,7 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1634,29 +1657,29 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1666,7 +1689,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1687,7 +1710,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1830,6 +1853,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1848,28 +1899,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1929,12 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1942,10 +1965,8 @@
     <cellStyle name="Header 1" xfId="2"/>
     <cellStyle name="Header 2" xfId="3"/>
     <cellStyle name="Header Center" xfId="4"/>
-    <cellStyle name="Heading 1" xfId="5" builtinId="16" customBuiltin="1"/>
     <cellStyle name="HP Logo" xfId="6"/>
     <cellStyle name="HP Logo_SUP1001T Change Request_c" xfId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Doc. Info_ENG1005T Requirements Traceability Matrix_c" xfId="8"/>
     <cellStyle name="Table Entry" xfId="9"/>
     <cellStyle name="Table Heading" xfId="10"/>
@@ -1956,6 +1977,8 @@
     <cellStyle name="Table Small Bold" xfId="15"/>
     <cellStyle name="Table Small Center" xfId="16"/>
     <cellStyle name="Table Title" xfId="17"/>
+    <cellStyle name="标题 1" xfId="5" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2236,7 +2259,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2253,11 +2276,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -2271,11 +2294,11 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="37"/>
@@ -2291,60 +2314,60 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2352,8 +2375,8 @@
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="20"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
@@ -2376,10 +2399,10 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="99"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="22" t="s">
@@ -2392,34 +2415,34 @@
         <v>101</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="22"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
     </row>
     <row r="15" spans="2:7" s="27" customFormat="1">
       <c r="B15" s="22"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="22"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="18" spans="2:7" ht="18.75">
       <c r="B18" s="4" t="s">
@@ -2473,6 +2496,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B5:C5"/>
@@ -2483,14 +2514,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.83" right="0.25" top="0.5" bottom="1" header="0.5" footer="0.4"/>
@@ -2509,19 +2532,19 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="19" style="61" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="61" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="69" customWidth="1"/>
-    <col min="8" max="8" width="14" style="61" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="61" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="61" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="61"/>
   </cols>
@@ -2574,7 +2597,7 @@
         <v>157</v>
       </c>
       <c r="I3" s="60"/>
-      <c r="J3" s="109"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="60"/>
@@ -2590,7 +2613,7 @@
       <c r="E4" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="129">
+      <c r="F4" s="95">
         <v>4.0999999999999996</v>
       </c>
       <c r="G4" s="74" t="s">
@@ -2598,7 +2621,7 @@
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="60"/>
-      <c r="J4" s="109"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="60"/>
@@ -2614,7 +2637,7 @@
       <c r="E5" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="95" t="s">
         <v>199</v>
       </c>
       <c r="G5" s="76" t="s">
@@ -2622,7 +2645,7 @@
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="60"/>
-      <c r="J5" s="109"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="60"/>
@@ -2639,7 +2662,7 @@
       <c r="E6" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="129">
+      <c r="F6" s="95">
         <v>4.4000000000000004</v>
       </c>
       <c r="G6" s="76" t="s">
@@ -2647,7 +2670,7 @@
       </c>
       <c r="H6" s="75"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="109"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="60"/>
@@ -2664,7 +2687,7 @@
       <c r="E7" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="95">
         <v>4.2</v>
       </c>
       <c r="G7" s="76" t="s">
@@ -2684,7 +2707,7 @@
       </c>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
-      <c r="F8" s="130"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="80"/>
       <c r="H8" s="81"/>
       <c r="I8" s="60"/>
@@ -2701,7 +2724,7 @@
       </c>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
-      <c r="F9" s="130"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
       <c r="I9" s="60"/>
@@ -2717,7 +2740,7 @@
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
-      <c r="F10" s="130"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="80"/>
       <c r="H10" s="81"/>
       <c r="I10" s="60"/>
@@ -2734,7 +2757,7 @@
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
-      <c r="F11" s="130"/>
+      <c r="F11" s="96"/>
       <c r="G11" s="80"/>
       <c r="H11" s="81"/>
       <c r="I11" s="60"/>
@@ -2750,7 +2773,7 @@
       </c>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
-      <c r="F12" s="130"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="80"/>
       <c r="H12" s="81"/>
       <c r="I12" s="60"/>
@@ -2770,7 +2793,7 @@
       <c r="E13" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="95">
         <v>5.0999999999999996</v>
       </c>
       <c r="G13" s="64" t="s">
@@ -2795,7 +2818,7 @@
       <c r="E14" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="95" t="s">
         <v>200</v>
       </c>
       <c r="G14" s="64" t="s">
@@ -2821,7 +2844,7 @@
       <c r="E15" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="129">
+      <c r="F15" s="95">
         <v>5.2</v>
       </c>
       <c r="G15" s="64" t="s">
@@ -2847,7 +2870,7 @@
       <c r="E16" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="129">
+      <c r="F16" s="95">
         <v>5.3</v>
       </c>
       <c r="G16" s="64" t="s">
@@ -2871,7 +2894,7 @@
       <c r="E17" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="129">
+      <c r="F17" s="95">
         <v>5.5</v>
       </c>
       <c r="G17" s="64" t="s">
@@ -2897,7 +2920,7 @@
       <c r="E18" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="129">
+      <c r="F18" s="95">
         <v>5.5</v>
       </c>
       <c r="G18" s="64" t="s">
@@ -2923,7 +2946,7 @@
       <c r="E19" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="129">
+      <c r="F19" s="95">
         <v>5.5</v>
       </c>
       <c r="G19" s="64" t="s">
@@ -2948,7 +2971,7 @@
       <c r="E20" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="95" t="s">
         <v>201</v>
       </c>
       <c r="G20" s="64" t="s">
@@ -2974,7 +2997,7 @@
       <c r="E21" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="129">
+      <c r="F21" s="95">
         <v>5.4</v>
       </c>
       <c r="G21" s="85" t="s">
@@ -3000,7 +3023,7 @@
       <c r="E22" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="129">
+      <c r="F22" s="95">
         <v>5.6</v>
       </c>
       <c r="G22" s="76" t="s">
@@ -3191,19 +3214,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="93" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="94" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3231,7 +3253,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="112" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -3243,7 +3265,7 @@
       <c r="D2" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="129">
+      <c r="E2" s="95">
         <v>4.0999999999999996</v>
       </c>
       <c r="F2" s="74" t="s">
@@ -3252,7 +3274,7 @@
       <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="111"/>
+      <c r="A3" s="113"/>
       <c r="B3" s="64" t="s">
         <v>167</v>
       </c>
@@ -3262,7 +3284,7 @@
       <c r="D3" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="95" t="s">
         <v>199</v>
       </c>
       <c r="F3" s="76" t="s">
@@ -3271,7 +3293,7 @@
       <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="72" t="s">
         <v>166</v>
       </c>
@@ -3281,7 +3303,7 @@
       <c r="D4" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="129">
+      <c r="E4" s="95">
         <v>4.4000000000000004</v>
       </c>
       <c r="F4" s="76" t="s">
@@ -3290,7 +3312,7 @@
       <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="111"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="72" t="s">
         <v>168</v>
       </c>
@@ -3300,7 +3322,7 @@
       <c r="D5" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="95">
         <v>4.2</v>
       </c>
       <c r="F5" s="76" t="s">
@@ -3309,7 +3331,7 @@
       <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="112"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="72" t="s">
         <v>169</v>
       </c>
@@ -3319,7 +3341,7 @@
       <c r="D6" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="129">
+      <c r="E6" s="95">
         <v>4.2</v>
       </c>
       <c r="F6" s="76" t="s">
@@ -3328,7 +3350,7 @@
       <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="117" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="79" t="s">
@@ -3336,34 +3358,34 @@
       </c>
       <c r="C7" s="80"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="130"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="80"/>
       <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="116"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="79" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="79"/>
-      <c r="E8" s="130"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="80"/>
       <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="117"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="79" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="130"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="80"/>
       <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="117" t="s">
         <v>173</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -3371,56 +3393,56 @@
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
-      <c r="E10" s="130"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="80"/>
       <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="116"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="79" t="s">
         <v>183</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="130"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="80"/>
       <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="116"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="79" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="79"/>
-      <c r="E12" s="130"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="80"/>
       <c r="G12" s="81"/>
     </row>
     <row r="13" spans="1:7" ht="14.25">
-      <c r="A13" s="116"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="79" t="s">
         <v>185</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="79"/>
-      <c r="E13" s="130"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="80"/>
       <c r="G13" s="81"/>
     </row>
     <row r="14" spans="1:7" ht="14.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="79" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="79"/>
-      <c r="E14" s="130"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="117" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="79" t="s">
@@ -3428,34 +3450,34 @@
       </c>
       <c r="C15" s="80"/>
       <c r="D15" s="79"/>
-      <c r="E15" s="130"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="80"/>
       <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="14.25">
-      <c r="A16" s="116"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="79" t="s">
         <v>177</v>
       </c>
       <c r="C16" s="80"/>
       <c r="D16" s="79"/>
-      <c r="E16" s="130"/>
+      <c r="E16" s="96"/>
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
     </row>
     <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="79" t="s">
         <v>178</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="79"/>
-      <c r="E17" s="130"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="80"/>
       <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="120" t="s">
         <v>174</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -3467,7 +3489,7 @@
       <c r="D18" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="129">
+      <c r="E18" s="95">
         <v>5.0999999999999996</v>
       </c>
       <c r="F18" s="76" t="s">
@@ -3476,8 +3498,8 @@
       <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="113" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="115" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="64" t="s">
@@ -3486,7 +3508,7 @@
       <c r="D19" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="129" t="s">
+      <c r="E19" s="95" t="s">
         <v>202</v>
       </c>
       <c r="F19" s="76" t="s">
@@ -3495,15 +3517,15 @@
       <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="119"/>
-      <c r="B20" s="114"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="64" t="s">
         <v>117</v>
       </c>
       <c r="D20" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="129">
+      <c r="E20" s="95">
         <v>5.2</v>
       </c>
       <c r="F20" s="76" t="s">
@@ -3512,7 +3534,7 @@
       <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="119"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="72" t="s">
         <v>187</v>
       </c>
@@ -3522,7 +3544,7 @@
       <c r="D21" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="129">
+      <c r="E21" s="95">
         <v>5.3</v>
       </c>
       <c r="F21" s="76" t="s">
@@ -3531,8 +3553,8 @@
       <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="113" t="s">
+      <c r="A22" s="121"/>
+      <c r="B22" s="115" t="s">
         <v>190</v>
       </c>
       <c r="C22" s="64" t="s">
@@ -3541,7 +3563,7 @@
       <c r="D22" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="129" t="s">
+      <c r="E22" s="95" t="s">
         <v>203</v>
       </c>
       <c r="F22" s="76" t="s">
@@ -3550,15 +3572,15 @@
       <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="114"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="64" t="s">
         <v>121</v>
       </c>
       <c r="D23" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="129">
+      <c r="E23" s="95">
         <v>5.4</v>
       </c>
       <c r="F23" s="76" t="s">
@@ -3567,7 +3589,7 @@
       <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="119"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="72" t="s">
         <v>188</v>
       </c>
@@ -3577,7 +3599,7 @@
       <c r="D24" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="129">
+      <c r="E24" s="95">
         <v>5.6</v>
       </c>
       <c r="F24" s="76" t="s">
@@ -3586,8 +3608,8 @@
       <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="113" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="115" t="s">
         <v>189</v>
       </c>
       <c r="C25" s="64" t="s">
@@ -3596,7 +3618,7 @@
       <c r="D25" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="129">
+      <c r="E25" s="95">
         <v>5.5</v>
       </c>
       <c r="F25" s="64" t="s">
@@ -3605,15 +3627,15 @@
       <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="120"/>
-      <c r="B26" s="114"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="64" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="129">
+      <c r="E26" s="95">
         <v>5.5</v>
       </c>
       <c r="F26" s="64" t="s">
@@ -3632,6 +3654,7 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A26"/>
   </mergeCells>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
@@ -3657,7 +3680,7 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -3668,7 +3691,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1">
+    <row r="2" spans="2:16" ht="13.5" thickBot="1">
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -3687,25 +3710,25 @@
     </row>
     <row r="3" spans="2:16" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
     </row>
     <row r="4" spans="2:16" ht="26.25" customHeight="1">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="127" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="41"/>
@@ -3740,11 +3763,11 @@
         <v>19</v>
       </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="124"/>
+      <c r="O4" s="126"/>
       <c r="P4" s="39"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75">
-      <c r="B5" s="126"/>
+    <row r="5" spans="2:16" ht="14.25">
+      <c r="B5" s="128"/>
       <c r="C5" s="44" t="s">
         <v>4</v>
       </c>
@@ -3775,11 +3798,11 @@
         <v>20</v>
       </c>
       <c r="N5" s="39"/>
-      <c r="O5" s="124"/>
+      <c r="O5" s="126"/>
       <c r="P5" s="39"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75">
-      <c r="B6" s="126"/>
+    <row r="6" spans="2:16" ht="14.25">
+      <c r="B6" s="128"/>
       <c r="C6" s="44" t="s">
         <v>5</v>
       </c>
@@ -3798,11 +3821,11 @@
         <v>20</v>
       </c>
       <c r="N6" s="39"/>
-      <c r="O6" s="124"/>
+      <c r="O6" s="126"/>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="126"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="44" t="s">
         <v>6</v>
       </c>
@@ -3825,11 +3848,11 @@
         <v>20</v>
       </c>
       <c r="N7" s="39"/>
-      <c r="O7" s="124"/>
+      <c r="O7" s="126"/>
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="126"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="44" t="s">
         <v>7</v>
       </c>
@@ -3852,7 +3875,7 @@
       <c r="P8" s="39"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="126"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="44" t="s">
         <v>8</v>
       </c>
@@ -3877,7 +3900,7 @@
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="126"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="44" t="s">
         <v>9</v>
       </c>
@@ -3900,7 +3923,7 @@
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="126"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="44" t="s">
         <v>10</v>
       </c>
@@ -3921,7 +3944,7 @@
       <c r="P11" s="39"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="126"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="44" t="s">
         <v>11</v>
       </c>
@@ -3948,7 +3971,7 @@
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="126"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="44" t="s">
         <v>12</v>
       </c>
@@ -3972,8 +3995,8 @@
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B14" s="127"/>
+    <row r="14" spans="2:16" ht="13.5" thickBot="1">
+      <c r="B14" s="129"/>
       <c r="C14" s="50" t="s">
         <v>13</v>
       </c>
@@ -4015,37 +4038,37 @@
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="2:16" ht="30.75" customHeight="1">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -4214,7 +4237,7 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -4225,27 +4248,27 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15" ht="13.5" thickBot="1"/>
     <row r="3" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" ht="26.25" customHeight="1">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="127" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="41"/>
@@ -4280,10 +4303,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="124"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75">
-      <c r="B5" s="126"/>
+      <c r="O4" s="126"/>
+    </row>
+    <row r="5" spans="2:15" ht="14.25">
+      <c r="B5" s="128"/>
       <c r="C5" s="44" t="s">
         <v>49</v>
       </c>
@@ -4312,10 +4335,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="39"/>
-      <c r="O5" s="124"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75">
-      <c r="B6" s="126"/>
+      <c r="O5" s="126"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.25">
+      <c r="B6" s="128"/>
       <c r="C6" s="44" t="s">
         <v>1</v>
       </c>
@@ -4332,10 +4355,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="39"/>
-      <c r="O6" s="124"/>
+      <c r="O6" s="126"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="126"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="44" t="s">
         <v>2</v>
       </c>
@@ -4356,10 +4379,10 @@
         <v>20</v>
       </c>
       <c r="N7" s="39"/>
-      <c r="O7" s="124"/>
+      <c r="O7" s="126"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="126"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="44" t="s">
         <v>3</v>
       </c>
@@ -4379,7 +4402,7 @@
       <c r="O8" s="49"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="126"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
@@ -4401,7 +4424,7 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="126"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="44" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4446,7 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="126"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="44" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +4464,7 @@
       <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="126"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="44" t="s">
         <v>17</v>
       </c>
@@ -4459,7 +4482,7 @@
       <c r="O12" s="39"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="126"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="44" t="s">
         <v>18</v>
       </c>
@@ -4476,8 +4499,8 @@
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B14" s="127"/>
+    <row r="14" spans="2:15" ht="13.5" thickBot="1">
+      <c r="B14" s="129"/>
       <c r="C14" s="44" t="s">
         <v>19</v>
       </c>
@@ -4511,36 +4534,36 @@
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
     </row>
@@ -4649,14 +4672,19 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
@@ -5080,7 +5108,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -5134,18 +5164,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5164,14 +5194,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3840B0CE-0A7F-444B-AC60-FC2EF815E71B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5184,4 +5206,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3840B0CE-0A7F-444B-AC60-FC2EF815E71B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
+++ b/01_doc/biz_spec/餐厅订餐系统_需求跟踪矩阵.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1859,6 +1859,24 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1881,24 +1899,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2276,11 +2276,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickTop="1">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -2294,11 +2294,11 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="37"/>
@@ -2314,60 +2314,60 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2375,8 @@
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="20"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
     </row>
@@ -2399,10 +2399,10 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="109"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="22" t="s">
@@ -2415,34 +2415,34 @@
         <v>101</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="22"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="2:7" s="27" customFormat="1">
       <c r="B15" s="22"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="22"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="106"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="98"/>
     </row>
     <row r="18" spans="2:7" ht="18.75">
       <c r="B18" s="4" t="s">
@@ -2496,14 +2496,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B5:C5"/>
@@ -2514,6 +2506,14 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.83" right="0.25" top="0.5" bottom="1" header="0.5" footer="0.4"/>
@@ -2532,7 +2532,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5115,6 +5115,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061CE645E30433848A4C0854A8DDC586B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f768968ed2186854e4a7e31ed889cea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -5163,12 +5169,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5179,6 +5179,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B8B39A-7C1B-4922-B2C8-52CA64CC8BE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5193,21 +5208,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E86CB1-7165-4C41-A2A7-88558B08E6E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3840B0CE-0A7F-444B-AC60-FC2EF815E71B}">
   <ds:schemaRefs>
